--- a/docs/Timesheet/a1909438/MCI-Timetsheet W2.xlsx
+++ b/docs/Timesheet/a1909438/MCI-Timetsheet W2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kc1226/Desktop/MCIP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limeilin/Desktop/MCI Final Project/CI4/docs/Timesheet/a1909438/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645FD595-B52A-2247-956A-ECF669310981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979B6CB2-FEE6-EA49-AF85-2AE2F3CA7EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="20020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="19960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -702,7 +701,7 @@
   <dimension ref="A2:AW12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
